--- a/medicine/Œil et vue/Fusion_binoculaire/Fusion_binoculaire.xlsx
+++ b/medicine/Œil et vue/Fusion_binoculaire/Fusion_binoculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fusion binoculaire est un phénomène de perception visuelle par lequel le système visuel produit une image unique à partir de deux images[1], l'une provenant de chaque œil. Il s'oppose à la diplopie[2], qui est une vision double, à la rivalité binoculaire, qui est une alternance entre les images dans le temps ou à la perception simultanée sans fusion[3]. 
-Il s'agit d'un phénomène très étudié en laboratoire[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fusion binoculaire est un phénomène de perception visuelle par lequel le système visuel produit une image unique à partir de deux images, l'une provenant de chaque œil. Il s'oppose à la diplopie, qui est une vision double, à la rivalité binoculaire, qui est une alternance entre les images dans le temps ou à la perception simultanée sans fusion. 
+Il s'agit d'un phénomène très étudié en laboratoire.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fusion binoculaire a des limites dont il faut tenir compte si on veut présenter des images :
 l'écart angulaire entre les deux vues gauche et droite d'un même objet est limité, pour la plupart des personnes aux environs de deux degrés ;
